--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9430.464020854064</v>
+        <v>1876662.340149959</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9430.464020854064</v>
+        <v>1876662.340149959</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16547.06372304489</v>
+        <v>992823.8233826939</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16547.06372304489</v>
+        <v>992823.8233826939</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036448097.066751</v>
+        <v>42686577.661257</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10180.27363064435</v>
+        <v>1072153.866740924</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19065.36777571807</v>
+        <v>1922233.368965425</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27950.46192079178</v>
+        <v>2772312.871189928</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37778.14377388621</v>
+        <v>3571318.430564056</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47177.16873724202</v>
+        <v>4389644.590526394</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56164.20616771305</v>
+        <v>5239464.116363391</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65149.12771766356</v>
+        <v>6089543.618587889</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74134.04926761411</v>
+        <v>6939623.120812387</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83833.39514770525</v>
+        <v>7725419.051154608</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93599.12107318275</v>
+        <v>8524424.610528732</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102650.4226685197</v>
+        <v>9387713.741785135</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111635.3442184702</v>
+        <v>10237793.24400964</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120620.2657684207</v>
+        <v>11087872.74623415</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130019.2907317765</v>
+        <v>11906198.90619649</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139846.972584871</v>
+        <v>12705204.46557062</v>
       </c>
     </row>
   </sheetData>
